--- a/census/places/kindergartens.xlsx
+++ b/census/places/kindergartens.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\COVID\census\places\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\JuliaABM\census\places\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5778" uniqueCount="3925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5784" uniqueCount="3930">
   <si>
     <t>rayon</t>
   </si>
@@ -11794,6 +11794,21 @@
   </si>
   <si>
     <t>55,866485</t>
+  </si>
+  <si>
+    <t>район Бирюлёво Западное</t>
+  </si>
+  <si>
+    <t>55,59059</t>
+  </si>
+  <si>
+    <t>37,649688</t>
+  </si>
+  <si>
+    <t>55,5802856</t>
+  </si>
+  <si>
+    <t>37,6487033</t>
   </si>
 </sst>
 </file>
@@ -12130,10 +12145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1926"/>
+  <dimension ref="A1:N1928"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1918" workbookViewId="0">
+      <selection activeCell="B1932" sqref="B1932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -44885,6 +44900,28 @@
       <c r="K1926" s="1"/>
       <c r="N1926" s="1"/>
     </row>
+    <row r="1927" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1927" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B1927" s="1" t="s">
+        <v>3927</v>
+      </c>
+      <c r="C1927" s="1" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1928" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B1928" s="1" t="s">
+        <v>3929</v>
+      </c>
+      <c r="C1928" s="1" t="s">
+        <v>3928</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
